--- a/natmiOut/OldD7/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Timp3-Agtr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>131.236801478014</v>
+        <v>150.258513</v>
       </c>
       <c r="H2">
-        <v>131.236801478014</v>
+        <v>450.775539</v>
       </c>
       <c r="I2">
-        <v>0.5984436535257051</v>
+        <v>0.5395416880146598</v>
       </c>
       <c r="J2">
-        <v>0.5984436535257051</v>
+        <v>0.5395416880146598</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.4307472990935</v>
+        <v>34.682839</v>
       </c>
       <c r="N2">
-        <v>33.4307472990935</v>
+        <v>104.048517</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9919940127517238</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9919940127517238</v>
       </c>
       <c r="Q2">
-        <v>4387.344346552786</v>
+        <v>5211.391814758407</v>
       </c>
       <c r="R2">
-        <v>4387.344346552786</v>
+        <v>46902.52633282566</v>
       </c>
       <c r="S2">
-        <v>0.5984436535257051</v>
+        <v>0.5352221241405011</v>
       </c>
       <c r="T2">
-        <v>0.5984436535257051</v>
+        <v>0.5352221241405011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.3080241667931</v>
+        <v>150.258513</v>
       </c>
       <c r="H3">
-        <v>36.3080241667931</v>
+        <v>450.775539</v>
       </c>
       <c r="I3">
-        <v>0.1655656522405827</v>
+        <v>0.5395416880146598</v>
       </c>
       <c r="J3">
-        <v>0.1655656522405827</v>
+        <v>0.5395416880146598</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>33.4307472990935</v>
+        <v>0.2799113333333333</v>
       </c>
       <c r="N3">
-        <v>33.4307472990935</v>
+        <v>0.839734</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.008005987248276263</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.008005987248276263</v>
       </c>
       <c r="Q3">
-        <v>1213.80438084944</v>
+        <v>42.059060718514</v>
       </c>
       <c r="R3">
-        <v>1213.80438084944</v>
+        <v>378.531546466626</v>
       </c>
       <c r="S3">
-        <v>0.1655656522405827</v>
+        <v>0.004319563874158817</v>
       </c>
       <c r="T3">
-        <v>0.1655656522405827</v>
+        <v>0.004319563874158817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.7520132552932</v>
+        <v>36.46294533333333</v>
       </c>
       <c r="H4">
-        <v>51.7520132552932</v>
+        <v>109.388836</v>
       </c>
       <c r="I4">
-        <v>0.2359906942337121</v>
+        <v>0.1309295472339256</v>
       </c>
       <c r="J4">
-        <v>0.2359906942337121</v>
+        <v>0.1309295472339256</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.4307472990935</v>
+        <v>34.682839</v>
       </c>
       <c r="N4">
-        <v>33.4307472990935</v>
+        <v>104.048517</v>
       </c>
       <c r="O4">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="P4">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="Q4">
+        <v>1264.638462461801</v>
+      </c>
+      <c r="R4">
+        <v>11381.74616215621</v>
+      </c>
+      <c r="S4">
+        <v>0.1298813269483483</v>
+      </c>
+      <c r="T4">
+        <v>0.1298813269483483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="G5">
+        <v>36.46294533333333</v>
+      </c>
+      <c r="H5">
+        <v>109.388836</v>
+      </c>
+      <c r="I5">
+        <v>0.1309295472339256</v>
+      </c>
+      <c r="J5">
+        <v>0.1309295472339256</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2799113333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.839734</v>
+      </c>
+      <c r="O5">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="P5">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="Q5">
+        <v>10.20639164551378</v>
+      </c>
+      <c r="R5">
+        <v>91.857524809624</v>
+      </c>
+      <c r="S5">
+        <v>0.001048220285577393</v>
+      </c>
+      <c r="T5">
+        <v>0.001048220285577393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.2335036666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.700511</v>
+      </c>
+      <c r="I6">
+        <v>0.0008384547401380566</v>
+      </c>
+      <c r="J6">
+        <v>0.0008384547401380566</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>1730.108477357044</v>
-      </c>
-      <c r="R4">
-        <v>1730.108477357044</v>
-      </c>
-      <c r="S4">
-        <v>0.2359906942337121</v>
-      </c>
-      <c r="T4">
-        <v>0.2359906942337121</v>
+      <c r="M6">
+        <v>34.682839</v>
+      </c>
+      <c r="N6">
+        <v>104.048517</v>
+      </c>
+      <c r="O6">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="P6">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="Q6">
+        <v>8.098570076909667</v>
+      </c>
+      <c r="R6">
+        <v>72.887130692187</v>
+      </c>
+      <c r="S6">
+        <v>0.0008317420821802546</v>
+      </c>
+      <c r="T6">
+        <v>0.0008317420821802546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2335036666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.700511</v>
+      </c>
+      <c r="I7">
+        <v>0.0008384547401380566</v>
+      </c>
+      <c r="J7">
+        <v>0.0008384547401380566</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2799113333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.839734</v>
+      </c>
+      <c r="O7">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="P7">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="Q7">
+        <v>0.06536032267488889</v>
+      </c>
+      <c r="R7">
+        <v>0.5882429040739999</v>
+      </c>
+      <c r="S7">
+        <v>6.712657957802069E-06</v>
+      </c>
+      <c r="T7">
+        <v>6.712657957802069E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>91.53790766666667</v>
+      </c>
+      <c r="H8">
+        <v>274.613723</v>
+      </c>
+      <c r="I8">
+        <v>0.3286903100112765</v>
+      </c>
+      <c r="J8">
+        <v>0.3286903100112764</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.682839</v>
+      </c>
+      <c r="N8">
+        <v>104.048517</v>
+      </c>
+      <c r="O8">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="P8">
+        <v>0.9919940127517238</v>
+      </c>
+      <c r="Q8">
+        <v>3174.794513999866</v>
+      </c>
+      <c r="R8">
+        <v>28573.15062599879</v>
+      </c>
+      <c r="S8">
+        <v>0.3260588195806943</v>
+      </c>
+      <c r="T8">
+        <v>0.3260588195806942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>91.53790766666667</v>
+      </c>
+      <c r="H9">
+        <v>274.613723</v>
+      </c>
+      <c r="I9">
+        <v>0.3286903100112765</v>
+      </c>
+      <c r="J9">
+        <v>0.3286903100112764</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.2799113333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.839734</v>
+      </c>
+      <c r="O9">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="P9">
+        <v>0.008005987248276263</v>
+      </c>
+      <c r="Q9">
+        <v>25.62249778552022</v>
+      </c>
+      <c r="R9">
+        <v>230.602480069682</v>
+      </c>
+      <c r="S9">
+        <v>0.002631490430582251</v>
+      </c>
+      <c r="T9">
+        <v>0.002631490430582251</v>
       </c>
     </row>
   </sheetData>
